--- a/src/PIN-Belegung.xlsx
+++ b/src/PIN-Belegung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\info\Documents\GitHub\ranciliopid\rancilio-pid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario\Documents\PlatformIO\Projects\lelit-pid\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9DF82E-B57C-46B0-914D-2C36554CBB87}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AFD664-6347-41BD-8BB7-26FC57CB13EF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16980" windowHeight="12135" xr2:uid="{20CEC777-A623-4258-BDB6-F7305DCE2CA4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20CEC777-A623-4258-BDB6-F7305DCE2CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
   <si>
     <t>PINS von Links nach Rechts</t>
   </si>
@@ -186,13 +186,31 @@
   </si>
   <si>
     <t>SCL (I2C) CLOCK Display</t>
+  </si>
+  <si>
+    <t>PINS PCF8574</t>
+  </si>
+  <si>
+    <t>PCF8574</t>
+  </si>
+  <si>
+    <t>ADDRESS 0X20</t>
+  </si>
+  <si>
+    <t>PUMP</t>
+  </si>
+  <si>
+    <t>CS PCF8574</t>
+  </si>
+  <si>
+    <t>SCK PCF8574</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +243,14 @@
     <font>
       <b/>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -291,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -322,9 +348,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -340,7 +368,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,71 +664,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91ED720-250E-4197-B33B-054F5025268C}">
-  <dimension ref="B3:N21"/>
+  <dimension ref="B3:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="N5" s="15"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="14"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>0</v>
       </c>
@@ -741,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -782,7 +810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
@@ -807,7 +835,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
@@ -834,7 +862,7 @@
       <c r="M10" s="11"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
@@ -875,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
@@ -916,7 +944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
@@ -947,7 +975,7 @@
       </c>
       <c r="N15" s="12"/>
     </row>
-    <row r="16" spans="2:14" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
@@ -980,14 +1008,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="7:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G18" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="17" t="s">
         <v>45</v>
       </c>
       <c r="L18" s="10" t="s">
@@ -1000,12 +1028,65 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="7:14" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>6</v>
+      </c>
+      <c r="J22" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>